--- a/GanttChartA2.xlsx
+++ b/GanttChartA2.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>ACTIVITY</t>
   </si>
@@ -741,6 +741,63 @@
     <xf numFmtId="1" fontId="10" fillId="9" borderId="0" xfId="13" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -774,71 +831,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="9" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1579,13 +1579,13 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DC35"/>
+  <dimension ref="A1:DC36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="7" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="5" topLeftCell="H18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomRight" activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1615,58 +1615,58 @@
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="2:107" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
       <c r="I2" s="20"/>
       <c r="J2" s="22"/>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="33"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="52"/>
       <c r="P2" s="23"/>
-      <c r="Q2" s="31" t="s">
+      <c r="Q2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="33"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="52"/>
       <c r="U2" s="24"/>
-      <c r="V2" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="35"/>
+      <c r="V2" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="54"/>
       <c r="Z2" s="25"/>
-      <c r="AA2" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="38"/>
+      <c r="AA2" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="57"/>
       <c r="AH2" s="26"/>
-      <c r="AI2" s="29" t="s">
+      <c r="AI2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30"/>
-      <c r="AO2" s="30"/>
-      <c r="AP2" s="30"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="49"/>
+      <c r="AP2" s="49"/>
       <c r="AQ2" s="20"/>
       <c r="AR2" s="20"/>
       <c r="AS2" s="20"/>
@@ -1778,59 +1778,59 @@
       <c r="AU3" s="7"/>
     </row>
     <row r="4" spans="2:107" s="4" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="41" t="s">
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="39" t="s">
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="40" t="s">
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
     </row>
     <row r="5" spans="2:107" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="46"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
       <c r="H5" s="16">
         <v>1</v>
       </c>
@@ -1885,7 +1885,7 @@
       <c r="Y5" s="16">
         <v>18</v>
       </c>
-      <c r="Z5" s="51">
+      <c r="Z5" s="31">
         <v>19</v>
       </c>
       <c r="AA5"/>
@@ -1909,7 +1909,7 @@
       <c r="G6" s="18">
         <v>1</v>
       </c>
-      <c r="Z6" s="52"/>
+      <c r="Z6" s="32"/>
       <c r="AA6"/>
     </row>
     <row r="7" spans="2:107" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1931,7 +1931,7 @@
       <c r="G7" s="18">
         <v>1</v>
       </c>
-      <c r="Z7" s="52"/>
+      <c r="Z7" s="32"/>
       <c r="AA7"/>
     </row>
     <row r="8" spans="2:107" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1953,7 +1953,7 @@
       <c r="G8" s="18">
         <v>1</v>
       </c>
-      <c r="Z8" s="52"/>
+      <c r="Z8" s="32"/>
       <c r="AA8"/>
     </row>
     <row r="9" spans="2:107" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1975,7 +1975,7 @@
       <c r="G9" s="18">
         <v>1</v>
       </c>
-      <c r="Z9" s="52"/>
+      <c r="Z9" s="32"/>
       <c r="AA9"/>
     </row>
     <row r="10" spans="2:107" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1997,29 +1997,29 @@
       <c r="G10" s="18">
         <v>1</v>
       </c>
-      <c r="Z10" s="52"/>
+      <c r="Z10" s="32"/>
       <c r="AA10"/>
     </row>
     <row r="11" spans="2:107" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="49">
-        <v>2</v>
-      </c>
-      <c r="D11" s="49">
-        <v>2</v>
-      </c>
-      <c r="E11" s="49">
+      <c r="C11" s="29">
+        <v>2</v>
+      </c>
+      <c r="D11" s="29">
+        <v>2</v>
+      </c>
+      <c r="E11" s="29">
         <v>3</v>
       </c>
-      <c r="F11" s="49">
-        <v>2</v>
-      </c>
-      <c r="G11" s="50">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="52"/>
+      <c r="F11" s="29">
+        <v>2</v>
+      </c>
+      <c r="G11" s="30">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="32"/>
       <c r="AA11"/>
     </row>
     <row r="12" spans="2:107" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2041,29 +2041,29 @@
       <c r="G12" s="18">
         <v>1</v>
       </c>
-      <c r="Z12" s="52"/>
+      <c r="Z12" s="32"/>
       <c r="AA12"/>
     </row>
     <row r="13" spans="2:107" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="49">
-        <v>2</v>
-      </c>
-      <c r="D13" s="49">
-        <v>2</v>
-      </c>
-      <c r="E13" s="49">
+      <c r="C13" s="29">
+        <v>2</v>
+      </c>
+      <c r="D13" s="29">
+        <v>2</v>
+      </c>
+      <c r="E13" s="29">
         <v>3</v>
       </c>
-      <c r="F13" s="49">
-        <v>2</v>
-      </c>
-      <c r="G13" s="50">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="52"/>
+      <c r="F13" s="29">
+        <v>2</v>
+      </c>
+      <c r="G13" s="30">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="32"/>
       <c r="AA13"/>
     </row>
     <row r="14" spans="2:107" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2085,7 +2085,7 @@
       <c r="G14" s="18">
         <v>1</v>
       </c>
-      <c r="Z14" s="52"/>
+      <c r="Z14" s="32"/>
       <c r="AA14"/>
     </row>
     <row r="15" spans="2:107" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2107,7 +2107,7 @@
       <c r="G15" s="18">
         <v>1</v>
       </c>
-      <c r="Z15" s="52"/>
+      <c r="Z15" s="32"/>
       <c r="AA15"/>
     </row>
     <row r="16" spans="2:107" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2129,7 +2129,7 @@
       <c r="G16" s="18">
         <v>1</v>
       </c>
-      <c r="Z16" s="52"/>
+      <c r="Z16" s="32"/>
       <c r="AA16"/>
     </row>
     <row r="17" spans="1:27" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2151,7 +2151,7 @@
       <c r="G17" s="18">
         <v>1</v>
       </c>
-      <c r="Z17" s="52"/>
+      <c r="Z17" s="32"/>
       <c r="AA17"/>
     </row>
     <row r="18" spans="1:27" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2173,7 +2173,7 @@
       <c r="G18" s="18">
         <v>1</v>
       </c>
-      <c r="Z18" s="52"/>
+      <c r="Z18" s="32"/>
       <c r="AA18"/>
     </row>
     <row r="19" spans="1:27" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2195,56 +2195,56 @@
       <c r="G19" s="18">
         <v>1</v>
       </c>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="53"/>
-      <c r="T19" s="53"/>
-      <c r="U19" s="53"/>
-      <c r="V19" s="53"/>
-      <c r="W19" s="53"/>
-      <c r="X19" s="53"/>
-      <c r="Y19" s="53"/>
-      <c r="Z19" s="54"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="34"/>
       <c r="AA19"/>
     </row>
     <row r="20" spans="1:27" s="20" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="55"/>
-      <c r="T20" s="55"/>
-      <c r="U20" s="55"/>
-      <c r="V20" s="55"/>
-      <c r="W20" s="55"/>
-      <c r="X20" s="55"/>
-      <c r="Y20" s="55"/>
-      <c r="Z20" s="56"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="37"/>
     </row>
     <row r="21" spans="1:27" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
@@ -2284,7 +2284,7 @@
       <c r="W21" s="21"/>
       <c r="X21" s="21"/>
       <c r="Y21" s="21"/>
-      <c r="Z21" s="52"/>
+      <c r="Z21" s="32"/>
       <c r="AA21"/>
     </row>
     <row r="22" spans="1:27" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -2325,7 +2325,7 @@
       <c r="W22" s="21"/>
       <c r="X22" s="21"/>
       <c r="Y22" s="21"/>
-      <c r="Z22" s="52"/>
+      <c r="Z22" s="32"/>
       <c r="AA22"/>
     </row>
     <row r="23" spans="1:27" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2366,7 +2366,7 @@
       <c r="W23" s="21"/>
       <c r="X23" s="21"/>
       <c r="Y23" s="21"/>
-      <c r="Z23" s="52"/>
+      <c r="Z23" s="32"/>
     </row>
     <row r="24" spans="1:27" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
@@ -2406,7 +2406,7 @@
       <c r="W24" s="21"/>
       <c r="X24" s="21"/>
       <c r="Y24" s="21"/>
-      <c r="Z24" s="52"/>
+      <c r="Z24" s="32"/>
     </row>
     <row r="25" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
@@ -2446,7 +2446,7 @@
       <c r="W25" s="21"/>
       <c r="X25" s="21"/>
       <c r="Y25" s="21"/>
-      <c r="Z25" s="52"/>
+      <c r="Z25" s="32"/>
     </row>
     <row r="26" spans="1:27" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20"/>
@@ -2486,7 +2486,7 @@
       <c r="W26" s="21"/>
       <c r="X26" s="21"/>
       <c r="Y26" s="21"/>
-      <c r="Z26" s="52"/>
+      <c r="Z26" s="32"/>
     </row>
     <row r="27" spans="1:27" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20"/>
@@ -2526,7 +2526,7 @@
       <c r="W27" s="21"/>
       <c r="X27" s="21"/>
       <c r="Y27" s="21"/>
-      <c r="Z27" s="52"/>
+      <c r="Z27" s="32"/>
     </row>
     <row r="28" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20"/>
@@ -2566,74 +2566,87 @@
       <c r="W28" s="21"/>
       <c r="X28" s="21"/>
       <c r="Y28" s="21"/>
-      <c r="Z28" s="52"/>
-    </row>
-    <row r="29" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="57" t="s">
+      <c r="Z28" s="32"/>
+    </row>
+    <row r="29" spans="1:27" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="58">
+      <c r="C29" s="59">
         <v>16</v>
       </c>
-      <c r="D29" s="58">
-        <v>1</v>
-      </c>
-      <c r="E29" s="58">
+      <c r="D29" s="59">
+        <v>1</v>
+      </c>
+      <c r="E29" s="59">
         <v>18</v>
       </c>
-      <c r="F29" s="58">
-        <v>1</v>
-      </c>
-      <c r="G29" s="59">
-        <v>1</v>
-      </c>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="53"/>
-      <c r="V29" s="53"/>
-      <c r="W29" s="53"/>
-      <c r="X29" s="53"/>
-      <c r="Y29" s="53"/>
-      <c r="Z29" s="54"/>
-    </row>
-    <row r="30" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="15"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="60"/>
-      <c r="R30" s="60"/>
-      <c r="S30" s="60"/>
-      <c r="T30" s="60"/>
-      <c r="U30" s="60"/>
-      <c r="V30" s="60"/>
-      <c r="W30" s="60"/>
-      <c r="X30" s="60"/>
-      <c r="Y30" s="60"/>
-      <c r="Z30" s="60"/>
+      <c r="F29" s="59">
+        <v>1</v>
+      </c>
+      <c r="G29" s="60">
+        <v>1</v>
+      </c>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="32"/>
+      <c r="AA29" s="21"/>
+    </row>
+    <row r="30" spans="1:27" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="20"/>
+      <c r="B30" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="59">
+        <v>18</v>
+      </c>
+      <c r="D30" s="59">
+        <v>1</v>
+      </c>
+      <c r="E30" s="59">
+        <v>18</v>
+      </c>
+      <c r="F30" s="59">
+        <v>1</v>
+      </c>
+      <c r="G30" s="60">
+        <v>1</v>
+      </c>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="33"/>
+      <c r="Z30" s="34"/>
     </row>
     <row r="31" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="15"/>
@@ -2642,6 +2655,25 @@
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="18"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="35"/>
     </row>
     <row r="32" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="15"/>
@@ -2675,8 +2707,22 @@
       <c r="F35" s="17"/>
       <c r="G35" s="18"/>
     </row>
+    <row r="36" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="15"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="18"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="AI2:AP2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="AA2:AG2"/>
     <mergeCell ref="A20:Z20"/>
     <mergeCell ref="S4:W4"/>
     <mergeCell ref="G4:G5"/>
@@ -2688,12 +2734,6 @@
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="L4:R4"/>
     <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="AI2:AP2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="AA2:AG2"/>
   </mergeCells>
   <conditionalFormatting sqref="H6:Q19">
     <cfRule type="expression" dxfId="32" priority="25">
@@ -2752,7 +2792,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21:Q29">
+  <conditionalFormatting sqref="H21:Q30">
     <cfRule type="expression" dxfId="15" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -2778,7 +2818,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R21:Z29">
+  <conditionalFormatting sqref="R21:Z30">
     <cfRule type="expression" dxfId="7" priority="9">
       <formula>PercentComplete</formula>
     </cfRule>
